--- a/Variables to Test.xlsx
+++ b/Variables to Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rybot\Desktop\Design Programs\.VSC Projects\Financial-Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Design Folder\RBGithub\Financial-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29BB88D-A75C-4923-9FC3-0EAF66C6CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FEB5AE-5FD8-45BE-A8FF-3986F5F00B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1110" windowWidth="15375" windowHeight="7785" xr2:uid="{BD38180B-85B7-4F99-81C4-29909C4D79D0}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{BD38180B-85B7-4F99-81C4-29909C4D79D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,9 +256,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E56FD-0101-41FD-BEFC-54FF8A52F2A2}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +621,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -639,10 +636,10 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -682,7 +679,7 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -747,11 +744,11 @@
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -876,48 +873,48 @@
         <v>[RSI14,Bolinger Bands]</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
